--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1669949.533842588</v>
+        <v>1686594.653146277</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111176</v>
+        <v>713587.7684111175</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.2720521</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6773926.5198877</v>
+        <v>6773926.519887701</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>200.3360962888296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>64.1386326986768</v>
+      </c>
+      <c r="H2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -792,16 +794,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>10.25948646672904</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>237.3811362441418</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.23748444544582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>210.6543024793039</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>95.77809019286802</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>162.6407508547923</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>190.1066023865956</v>
       </c>
     </row>
     <row r="9">
@@ -1215,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>89.93607067950306</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>42.1813534099589</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.65804289016209</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>117.3450705775779</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>29.63438288880484</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>8.256174432631903</v>
       </c>
     </row>
     <row r="13">
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>21.38816470214937</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>56.06257007945281</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>89.98174747814556</v>
       </c>
     </row>
     <row r="15">
@@ -1686,22 +1688,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>3.621171661741974</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>54.35891355062925</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -1731,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
@@ -1752,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356401</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>47.74806282379119</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>92.35335504220156</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>81.12752273267782</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
@@ -2044,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>121.2639307986801</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.1189927826351</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>120.8703053608542</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>191.6486726520363</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.78974769572879</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>98.6831373954543</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>129.0632770397856</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>139.7420646587695</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>49.84327387331549</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>85.89602683941162</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>73.36175976093791</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>98.68313739545462</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>81.21596998689211</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>47.74806282379132</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.10070109604781</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.12022702288976</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>42.05930342856824</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>149.6019319835422</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>47.74806282379119</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2877,7 +2879,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>113.421870304492</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>28.28562170591829</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>39.19479062707025</v>
       </c>
       <c r="W31" t="n">
-        <v>73.3617597609379</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>38.81987006827082</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
@@ -3089,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>63.24835668046682</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>198.8438394731585</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>42.88504894832682</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>217.5440692862961</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>49.57950995679982</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>25.37527508885681</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>127.5262986521572</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>158.2525819861379</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>106.0890042129125</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>86.65804289016221</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>220.3408895985027</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3579,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>70.12830304199565</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>3.062277887576959</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>39.1947906270704</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>160.9432843732984</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>70.6261198365675</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3819,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>128.4562226808342</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>25.37527508885681</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
@@ -3876,13 +3878,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>18.12022702288976</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>99.78974769572852</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>44.4102132958652</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -4031,13 +4033,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>103.5442844410954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,19 +4058,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>46.57473665873887</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>132.4670034684875</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.6221850809707</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.36175976093789</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>552.188315333803</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>578.0900986769104</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>578.0900986769104</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>578.0900986769104</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.1327311248648</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>285.1327311248648</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D5" t="n">
-        <v>285.1327311248648</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>325.7766548071333</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>263.4840524070985</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>259.0600686093459</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="C9" t="n">
-        <v>259.0600686093459</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D9" t="n">
-        <v>110.1256589480946</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,13 +4889,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W9" t="n">
-        <v>259.0600686093459</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="X9" t="n">
-        <v>259.0600686093459</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="Y9" t="n">
-        <v>259.0600686093459</v>
+        <v>382.9414955037181</v>
       </c>
     </row>
     <row r="10">
@@ -4939,28 +4941,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5039,16 +5041,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>503.7583553506521</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="W11" t="n">
-        <v>150.9897000805379</v>
+        <v>1182.664256060766</v>
       </c>
       <c r="X11" t="n">
-        <v>32.45932575975218</v>
+        <v>809.1984977996857</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.45932575975218</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>536.9689116288023</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C12" t="n">
-        <v>536.9689116288023</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
-        <v>536.9689116288023</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
         <v>507.0351915391004</v>
@@ -5124,46 +5126,46 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>236.9655055809357</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>636.3836421851987</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>1038.067798462132</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
-        <v>1361.08130563669</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1603.325054840698</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051268</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U12" t="n">
-        <v>1026.358376588747</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V12" t="n">
-        <v>791.2062683570039</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W12" t="n">
-        <v>536.9689116288023</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X12" t="n">
-        <v>536.9689116288023</v>
+        <v>1166.214992640974</v>
       </c>
       <c r="Y12" t="n">
-        <v>536.9689116288023</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>107.8860696601711</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>107.8860696601711</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.8860696601711</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975218</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975218</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975218</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E14" t="n">
         <v>32.45932575975218</v>
@@ -5276,16 +5278,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5303,25 +5305,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1566.337429321495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1343.593509702263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>1089.756626634517</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>758.6937392909463</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W14" t="n">
-        <v>405.9250840208321</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X14" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975218</v>
+        <v>1532.07563396928</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>736.3962143057115</v>
+        <v>562.0366893934302</v>
       </c>
       <c r="C15" t="n">
-        <v>561.9431850245845</v>
+        <v>558.3789402401554</v>
       </c>
       <c r="D15" t="n">
-        <v>561.9431850245845</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H15" t="n">
         <v>111.7947023326189</v>
@@ -5355,22 +5357,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384402</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384402</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270845</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>636.3836421851986</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1361.08130563669</v>
       </c>
       <c r="P15" t="n">
         <v>1513.730526286846</v>
@@ -5382,25 +5384,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1340.665718993834</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U15" t="n">
-        <v>1112.463051531312</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V15" t="n">
-        <v>1112.463051531312</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="W15" t="n">
-        <v>1112.463051531312</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="X15" t="n">
-        <v>904.6115513257796</v>
+        <v>938.0123251784521</v>
       </c>
       <c r="Y15" t="n">
-        <v>904.6115513257796</v>
+        <v>730.2520264134982</v>
       </c>
     </row>
     <row r="16">
@@ -5443,40 +5445,40 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642184</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y16" t="n">
         <v>32.45932575975218</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D17" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E17" t="n">
-        <v>1237.178035389365</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F17" t="n">
-        <v>827.338063675322</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4980919612793</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H17" t="n">
-        <v>80.68969224843016</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5540,25 +5542,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1529.680070773264</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1306.936151154032</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>1053.099268086286</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>722.0363807427154</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.966287987609</v>
+        <v>369.2677254726013</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>288.8593477001497</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="C18" t="n">
-        <v>114.4063184190227</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D18" t="n">
-        <v>114.4063184190227</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E18" t="n">
-        <v>114.4063184190227</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F18" t="n">
         <v>32.45932575975218</v>
@@ -5592,16 +5594,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N18" t="n">
         <v>948.4732699082806</v>
@@ -5616,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1422.063279093102</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1193.860611630581</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V18" t="n">
-        <v>958.708503398838</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W18" t="n">
-        <v>704.4711466706365</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X18" t="n">
-        <v>496.6196464651036</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y18" t="n">
-        <v>288.8593477001497</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="19">
@@ -5692,22 +5694,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W19" t="n">
         <v>32.45932575975218</v>
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>401.4218427001639</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975218</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975218</v>
+        <v>730.3924271552187</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>344.6041745569744</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>344.6041745569744</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>344.6041745569744</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1517.79558820717</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1517.79558820717</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T20" t="n">
-        <v>1517.79558820717</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U20" t="n">
-        <v>1517.79558820717</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V20" t="n">
-        <v>1517.79558820717</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W20" t="n">
-        <v>1165.026932937056</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X20" t="n">
-        <v>791.5611746759756</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.4218427001639</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>289.2874417254039</v>
+        <v>937.2982737420236</v>
       </c>
       <c r="C21" t="n">
-        <v>289.2874417254039</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D21" t="n">
-        <v>289.2874417254039</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>289.2874417254039</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>142.7528837522889</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L21" t="n">
-        <v>505.948365158507</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321102</v>
+        <v>636.3836421851988</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1361.08130563669</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1603.325054840698</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5856,25 +5858,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894781</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V21" t="n">
-        <v>751.3762986591385</v>
+        <v>1105.513610762092</v>
       </c>
       <c r="W21" t="n">
-        <v>497.1389419309368</v>
+        <v>1105.513610762092</v>
       </c>
       <c r="X21" t="n">
-        <v>289.2874417254039</v>
+        <v>1105.513610762092</v>
       </c>
       <c r="Y21" t="n">
-        <v>289.2874417254039</v>
+        <v>1105.513610762092</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1523.286351224524</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144411</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144411</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144411</v>
+        <v>133.2570507049328</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1378.603698709343</v>
+        <v>591.0778725088204</v>
       </c>
       <c r="C23" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D23" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E23" t="n">
-        <v>1378.603698709343</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F23" t="n">
-        <v>968.7637269953004</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G23" t="n">
-        <v>558.9237552812577</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H23" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6011,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S23" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T23" t="n">
-        <v>1378.603698709343</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U23" t="n">
-        <v>1378.603698709343</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V23" t="n">
-        <v>1378.603698709343</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W23" t="n">
-        <v>1378.603698709343</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X23" t="n">
-        <v>1378.603698709343</v>
+        <v>1367.817044548754</v>
       </c>
       <c r="Y23" t="n">
-        <v>1378.603698709343</v>
+        <v>977.6777125729423</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>416.496551332512</v>
+        <v>938.0113757202575</v>
       </c>
       <c r="C24" t="n">
-        <v>242.0435220513849</v>
+        <v>763.5583464391306</v>
       </c>
       <c r="D24" t="n">
-        <v>191.6967807652077</v>
+        <v>614.6239367778793</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>455.3864817724238</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>308.8519237993088</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
         <v>1380.722538783602</v>
@@ -6090,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V24" t="n">
-        <v>1254.561044051268</v>
+        <v>938.0113757202575</v>
       </c>
       <c r="W24" t="n">
-        <v>1000.323687323067</v>
+        <v>938.0113757202575</v>
       </c>
       <c r="X24" t="n">
-        <v>792.4721871175338</v>
+        <v>938.0113757202575</v>
       </c>
       <c r="Y24" t="n">
-        <v>584.71188835258</v>
+        <v>938.0113757202575</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6175,22 +6177,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V25" t="n">
-        <v>106.5621133970632</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W25" t="n">
-        <v>106.5621133970632</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X25" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1574.735921498931</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="C26" t="n">
-        <v>1574.735921498931</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D26" t="n">
-        <v>1574.735921498931</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>1188.947668900687</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K26" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6257,19 +6259,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1540.929954667516</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1540.929954667516</v>
       </c>
       <c r="W26" t="n">
-        <v>1622.966287987609</v>
+        <v>1540.929954667516</v>
       </c>
       <c r="X26" t="n">
-        <v>1574.735921498931</v>
+        <v>1167.464196406436</v>
       </c>
       <c r="Y26" t="n">
-        <v>1574.735921498931</v>
+        <v>777.3248644306245</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>666.272646544556</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="C27" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D27" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>729.6092173456783</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N27" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
         <v>1622.966287987609</v>
@@ -6336,19 +6338,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894784</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V27" t="n">
-        <v>709.8087082577356</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W27" t="n">
-        <v>709.8087082577356</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X27" t="n">
-        <v>709.8087082577356</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>709.8087082577356</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>1604.663028368529</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>1443.170888970756</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>74.94347063709384</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>552.5349053098025</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C29" t="n">
-        <v>183.5723883693908</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D29" t="n">
-        <v>183.5723883693908</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E29" t="n">
-        <v>183.5723883693908</v>
+        <v>1237.178035389365</v>
       </c>
       <c r="F29" t="n">
-        <v>183.5723883693908</v>
+        <v>827.338063675322</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975219</v>
+        <v>417.4980919612793</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975219</v>
+        <v>80.68969224843016</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6497,16 +6499,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>1291.903400644038</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>939.1347453739243</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X29" t="n">
-        <v>939.1347453739243</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y29" t="n">
-        <v>939.1347453739243</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>549.7496870371103</v>
+        <v>594.4195962804527</v>
       </c>
       <c r="C30" t="n">
-        <v>375.2966577559833</v>
+        <v>419.9665669993257</v>
       </c>
       <c r="D30" t="n">
-        <v>226.3622480947321</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="E30" t="n">
         <v>111.7947023326189</v>
@@ -6537,55 +6539,55 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>147.3709770270848</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313477</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082811</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1594.394952931126</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1426.892717889292</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.966287987609</v>
+        <v>1225.989708994785</v>
       </c>
       <c r="U30" t="n">
-        <v>1622.966287987609</v>
+        <v>997.7870415322634</v>
       </c>
       <c r="V30" t="n">
-        <v>1387.814179755867</v>
+        <v>762.6349333005207</v>
       </c>
       <c r="W30" t="n">
-        <v>1133.576823027665</v>
+        <v>762.6349333005207</v>
       </c>
       <c r="X30" t="n">
-        <v>925.7253228221323</v>
+        <v>762.6349333005207</v>
       </c>
       <c r="Y30" t="n">
-        <v>717.9650240571784</v>
+        <v>762.6349333005207</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>1333.769709747513</v>
       </c>
       <c r="V31" t="n">
-        <v>106.5621133970632</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
@@ -6704,10 +6706,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6722,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1583.754298019659</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1583.754298019659</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U32" t="n">
-        <v>1329.917414951913</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V32" t="n">
-        <v>998.8545276083422</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W32" t="n">
-        <v>998.8545276083422</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X32" t="n">
-        <v>998.8545276083422</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y32" t="n">
-        <v>608.7151956325305</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>730.1598755147245</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C33" t="n">
-        <v>730.1598755147245</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D33" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3709770270845</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M33" t="n">
         <v>546.7891136313474</v>
@@ -6801,28 +6803,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U33" t="n">
-        <v>1173.163483952</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V33" t="n">
-        <v>938.0113757202573</v>
+        <v>1193.911257420887</v>
       </c>
       <c r="W33" t="n">
-        <v>938.0113757202573</v>
+        <v>939.6739006926853</v>
       </c>
       <c r="X33" t="n">
-        <v>730.1598755147245</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y33" t="n">
-        <v>730.1598755147245</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>75.77755702068836</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>75.77755702068836</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>75.77755702068836</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>75.77755702068836</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>75.77755702068836</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>75.77755702068836</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>75.77755702068836</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>75.77755702068836</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V34" t="n">
-        <v>1368.281799781722</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144411</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>75.77755702068836</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>779.107697186644</v>
+        <v>441.8568396959805</v>
       </c>
       <c r="C35" t="n">
-        <v>779.107697186644</v>
+        <v>441.8568396959805</v>
       </c>
       <c r="D35" t="n">
-        <v>779.107697186644</v>
+        <v>441.8568396959805</v>
       </c>
       <c r="E35" t="n">
-        <v>779.107697186644</v>
+        <v>441.8568396959805</v>
       </c>
       <c r="F35" t="n">
-        <v>779.107697186644</v>
+        <v>441.8568396959805</v>
       </c>
       <c r="G35" t="n">
-        <v>369.2677254726013</v>
+        <v>441.8568396959805</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1572.885974899933</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1375.317375066956</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1152.573455447724</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U35" t="n">
-        <v>1152.573455447724</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V35" t="n">
-        <v>1152.573455447724</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W35" t="n">
-        <v>1152.573455447724</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="X35" t="n">
-        <v>779.107697186644</v>
+        <v>441.8568396959805</v>
       </c>
       <c r="Y35" t="n">
-        <v>779.107697186644</v>
+        <v>441.8568396959805</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>247.7198513240009</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C36" t="n">
-        <v>247.7198513240009</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D36" t="n">
-        <v>247.7198513240009</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E36" t="n">
-        <v>247.7198513240009</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F36" t="n">
-        <v>247.7198513240009</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M36" t="n">
         <v>546.7891136313474</v>
@@ -7038,28 +7040,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894781</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577354</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W36" t="n">
-        <v>455.5713515295337</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240009</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="Y36" t="n">
-        <v>247.7198513240009</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.6199360758254</v>
+        <v>1463.115195072318</v>
       </c>
       <c r="C37" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D37" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E37" t="n">
-        <v>139.6199360758254</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L37" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M37" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N37" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O37" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.6199360758254</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>119.9927024164817</v>
+        <v>444.6819107184115</v>
       </c>
       <c r="C38" t="n">
-        <v>119.9927024164817</v>
+        <v>444.6819107184115</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>444.6819107184115</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>444.6819107184115</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>444.6819107184115</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>444.6819107184115</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
         <v>519.4894913528324</v>
@@ -7196,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="W38" t="n">
-        <v>1270.197632717495</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="X38" t="n">
-        <v>896.7318744564152</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.5925424806035</v>
+        <v>444.6819107184115</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.6600854869342</v>
+        <v>737.1093162839455</v>
       </c>
       <c r="C39" t="n">
-        <v>815.2070562058072</v>
+        <v>737.1093162839455</v>
       </c>
       <c r="D39" t="n">
         <v>666.272646544556</v>
@@ -7248,25 +7250,25 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975218</v>
+        <v>201.1187329501918</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1910807414154</v>
+        <v>498.850487931855</v>
       </c>
       <c r="M39" t="n">
-        <v>729.6092173456783</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7275,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1619.873078000158</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U39" t="n">
-        <v>1619.873078000158</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V39" t="n">
-        <v>1619.873078000158</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W39" t="n">
-        <v>1365.635721271956</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="X39" t="n">
-        <v>1365.635721271956</v>
+        <v>737.1093162839455</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.875422507002</v>
+        <v>737.1093162839455</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7354,28 +7356,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>194.1667418687505</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975218</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C41" t="n">
         <v>32.45932575975218</v>
@@ -7433,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>1148.833071266758</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>796.0644159966438</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X41" t="n">
-        <v>422.5986577355639</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.45932575975218</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>247.7198513240009</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="C42" t="n">
-        <v>247.7198513240009</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>247.7198513240009</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>247.7198513240009</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>247.7198513240009</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
         <v>222.0882603251556</v>
@@ -7488,13 +7490,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270845</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
         <v>546.7891136313474</v>
@@ -7524,16 +7526,16 @@
         <v>944.9608164894781</v>
       </c>
       <c r="V42" t="n">
-        <v>709.8087082577354</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W42" t="n">
-        <v>455.5713515295337</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="X42" t="n">
-        <v>247.7198513240009</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="Y42" t="n">
-        <v>247.7198513240009</v>
+        <v>944.9608164894781</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>1461.474148589836</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>1312.482271763492</v>
       </c>
       <c r="J43" t="n">
         <v>1294.179012144411</v>
@@ -7603,16 +7605,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V43" t="n">
-        <v>1522.168563042429</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W43" t="n">
-        <v>1522.168563042429</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y43" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1013.622528304255</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="C44" t="n">
-        <v>1013.622528304255</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="D44" t="n">
-        <v>1013.622528304255</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="E44" t="n">
-        <v>1013.622528304255</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="F44" t="n">
-        <v>968.7637269953004</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G44" t="n">
-        <v>558.9237552812577</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H44" t="n">
         <v>222.1153555684087</v>
@@ -7679,19 +7681,19 @@
         <v>1400.222368368377</v>
       </c>
       <c r="U44" t="n">
-        <v>1400.222368368377</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V44" t="n">
-        <v>1400.222368368377</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="W44" t="n">
-        <v>1400.222368368377</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="X44" t="n">
-        <v>1400.222368368377</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="Y44" t="n">
-        <v>1400.222368368377</v>
+        <v>1041.795298996494</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>79.50451430393287</v>
+        <v>651.0967412602795</v>
       </c>
       <c r="C45" t="n">
-        <v>79.50451430393287</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="D45" t="n">
-        <v>79.50451430393287</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E45" t="n">
-        <v>79.50451430393287</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F45" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G45" t="n">
         <v>32.45932575975218</v>
@@ -7734,7 +7736,7 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N45" t="n">
         <v>1057.709031609043</v>
@@ -7749,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1489.161233979036</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1489.161233979036</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894781</v>
+        <v>1489.161233979036</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577354</v>
+        <v>1489.161233979036</v>
       </c>
       <c r="W45" t="n">
-        <v>455.5713515295337</v>
+        <v>1234.923877250834</v>
       </c>
       <c r="X45" t="n">
-        <v>247.7198513240009</v>
+        <v>1027.072377045301</v>
       </c>
       <c r="Y45" t="n">
-        <v>247.7198513240009</v>
+        <v>819.3120782803476</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975218</v>
+        <v>193.9514651575251</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975218</v>
@@ -7831,25 +7833,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,10 +8075,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.5777639440801</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026377</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>157.1342855878806</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>227.9632448481682</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>375.205539958231</v>
       </c>
       <c r="N18" t="n">
-        <v>270.4206501018625</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733472</v>
       </c>
       <c r="M21" t="n">
-        <v>213.8448350321618</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>455.0874215304797</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>119.5777639440803</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>296.512727107936</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>174.18790452568</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>86.93262649026376</v>
@@ -9963,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479949</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>244.1351504444139</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275543</v>
@@ -10191,25 +10193,25 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>186.1735738748424</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.0020905588914</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344213</v>
       </c>
       <c r="N33" t="n">
         <v>455.0874215304797</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>251.9990040344213</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,7 +10904,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>257.2956640563644</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>380.7598033349564</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275543</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210651</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11382,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N45" t="n">
-        <v>174.18790452568</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0942155799728</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>252.3860301008911</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>128.0106975665961</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>197.4265213446725</v>
       </c>
     </row>
     <row r="13">
@@ -23431,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>120.6824273767248</v>
       </c>
       <c r="I13" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>198.022234169704</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23543,25 +23545,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>139.5303437551937</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>296.256191177908</v>
       </c>
     </row>
     <row r="15">
@@ -23574,22 +23576,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>169.0873273265738</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>103.2861669047717</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23622,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082894</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>118.794905656366</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>140.0114066867787</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>103.239558792445</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>165.2832744570139</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23820,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>63.94168966070606</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23932,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,10 +23986,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>212.1763849170405</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8.736693563062389</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>51.83819362746152</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>41.15191449738899</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7266695472104</v>
+        <v>67.93692185148161</v>
       </c>
       <c r="H22" t="n">
         <v>159.8772180037952</v>
@@ -24175,10 +24177,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>120.7272614763991</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>91.45320338325416</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>229.9890360196996</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>97.60179169132326</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>51.13222266900983</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24342,16 +24344,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>73.07220288563126</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,19 +24417,19 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>127.0265179935825</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24497,7 +24499,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>170.0825442501763</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>321.9830378546777</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>123.4324825538195</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>165.2832744570139</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>149.6064425243206</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J28" t="n">
         <v>74.67247646141476</v>
@@ -24643,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>184.7569622607431</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>265.1115721469916</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>140.0114066867787</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,10 +24739,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24765,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>44.2232101509089</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>52.29796279235723</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24892,13 +24894,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>212.9428526967578</v>
       </c>
       <c r="W31" t="n">
-        <v>213.1612385756531</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24935,7 +24937,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>156.7730437663757</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24977,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008911</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>84.19670888417193</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>33.95674767626673</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25096,7 +25098,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>74.67247646141476</v>
+        <v>31.78742751308794</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
@@ -25132,16 +25134,16 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>213.1612385756534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>115.8962464294245</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.27617638889763</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>111.6529744195646</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>124.1686845087624</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>21.57939819579943</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>39.33204381001872</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25360,7 +25362,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>268.0249987305207</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,10 +25408,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>113.0994261172179</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25467,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>77.3167625226431</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>195.8317009179847</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>106.2262573958608</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25594,16 +25596,16 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>66.72592374140291</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
@@ -25685,10 +25687,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>166.8089740968365</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>278.6148488808455</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25707,19 +25709,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>44.25227630748157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>111.6529744195646</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25764,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25801,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>56.552249438525</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>152.3478956280995</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>362.4658324458462</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>245.6966842763176</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,19 +25946,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>98.49447573464501</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -25989,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>33.36020922292821</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>2.104484466239711</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26071,7 +26073,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>146.0486391109155</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
@@ -26080,7 +26082,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482797.0368923621</v>
+        <v>482797.0368923618</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482797.0368923621</v>
+        <v>482797.0368923619</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>482797.0368923619</v>
+        <v>482797.0368923618</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482797.0368923618</v>
+        <v>482797.0368923621</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482797.0368923621</v>
+        <v>482797.0368923622</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482797.0368923622</v>
+        <v>482797.0368923619</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482797.0368923618</v>
+        <v>482797.0368923622</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482797.0368923616</v>
+        <v>482797.0368923622</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049982</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904495</v>
       </c>
       <c r="F2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904494</v>
       </c>
       <c r="G2" t="n">
         <v>299080.4558904493</v>
       </c>
       <c r="H2" t="n">
-        <v>299080.4558904495</v>
+        <v>299080.4558904491</v>
       </c>
       <c r="I2" t="n">
         <v>299080.4558904493</v>
       </c>
       <c r="J2" t="n">
-        <v>299080.4558904491</v>
+        <v>299080.4558904495</v>
       </c>
       <c r="K2" t="n">
         <v>299080.4558904493</v>
       </c>
       <c r="L2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904495</v>
       </c>
       <c r="M2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="N2" t="n">
-        <v>299080.4558904494</v>
+        <v>299080.4558904492</v>
       </c>
       <c r="O2" t="n">
         <v>299080.4558904492</v>
       </c>
       <c r="P2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904491</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26377,7 @@
         <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.261091817170383e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,10 +26423,10 @@
         <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="F4" t="n">
         <v>34482.31175973667</v>
@@ -26439,25 +26441,25 @@
         <v>34482.31175973668</v>
       </c>
       <c r="J4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="K4" t="n">
         <v>34482.31175973667</v>
       </c>
       <c r="L4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="N4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="O4" t="n">
+        <v>34482.31175973668</v>
+      </c>
+      <c r="P4" t="n">
         <v>34482.31175973667</v>
-      </c>
-      <c r="P4" t="n">
-        <v>34482.31175973668</v>
       </c>
     </row>
     <row r="5">
@@ -26485,16 +26487,16 @@
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="J5" t="n">
         <v>27864.35291375756</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>27864.35291375756</v>
-      </c>
-      <c r="J5" t="n">
-        <v>27864.35291375757</v>
-      </c>
-      <c r="K5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375756</v>
@@ -26503,7 +26505,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133083.1641909716</v>
+        <v>133083.1641909719</v>
       </c>
       <c r="C6" t="n">
-        <v>213852.5957225196</v>
+        <v>213852.5957225194</v>
       </c>
       <c r="D6" t="n">
-        <v>213852.5957225193</v>
+        <v>213852.5957225195</v>
       </c>
       <c r="E6" t="n">
-        <v>69793.62109170825</v>
+        <v>69793.62109170853</v>
       </c>
       <c r="F6" t="n">
-        <v>236733.7912169549</v>
+        <v>236733.7912169551</v>
       </c>
       <c r="G6" t="n">
         <v>236733.7912169551</v>
       </c>
       <c r="H6" t="n">
-        <v>236733.7912169552</v>
+        <v>236733.7912169549</v>
       </c>
       <c r="I6" t="n">
         <v>236733.7912169551</v>
       </c>
       <c r="J6" t="n">
-        <v>173673.8486178486</v>
+        <v>173673.8486178491</v>
       </c>
       <c r="K6" t="n">
         <v>236733.7912169551</v>
       </c>
       <c r="L6" t="n">
-        <v>236733.791216955</v>
+        <v>236733.7912169552</v>
       </c>
       <c r="M6" t="n">
         <v>195683.0933545071</v>
       </c>
       <c r="N6" t="n">
-        <v>236733.7912169552</v>
+        <v>236733.7912169549</v>
       </c>
       <c r="O6" t="n">
         <v>236733.791216955</v>
       </c>
       <c r="P6" t="n">
-        <v>236733.7912169551</v>
+        <v>236733.7912169548</v>
       </c>
     </row>
   </sheetData>
@@ -26969,7 +26971,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.39075054832453e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>164.7272831192432</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.014288877659</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>164.7272831192433</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.0142888776592</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192433</v>
+        <v>164.7272831192432</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>206.5399494528818</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,19 +27469,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,16 +27514,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>215.6818956142458</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>14.31384691677781</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27588,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.4963572180347</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>154.6185892917037</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,19 +27745,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>137.0224969565572</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>89.05423230612735</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27774,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.78129424836629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5905486845387</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>196.131336269458</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27935,10 +27937,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>67.70900977589788</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>209.5136297509607</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.8756670037568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32011,25 +32013,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32071,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
@@ -32078,22 +32080,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
         <v>40.24363958326609</v>
@@ -32102,7 +32104,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32181,7 +32183,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,10 +34795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35021,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35507,7 +35509,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.83962944132466</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35656,7 +35658,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696145</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
-        <v>87.03308673054588</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366292</v>
@@ -35741,7 +35743,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>154.191131969855</v>
       </c>
       <c r="Q15" t="n">
         <v>110.3391532330937</v>
@@ -35805,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>312.9531394448603</v>
       </c>
       <c r="N18" t="n">
-        <v>221.0748005682852</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>151.5924345187911</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36218,7 +36220,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>19.8396294413249</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506013</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>124.8420549921026</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144175</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>170.3630375661007</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L30" t="n">
-        <v>116.0723750175077</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366292</v>
@@ -36923,13 +36925,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
-        <v>326.276269873291</v>
+        <v>74.41604115545286</v>
       </c>
       <c r="P30" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4526632366292</v>
+        <v>189.7466035210507</v>
       </c>
       <c r="N33" t="n">
         <v>405.7415719969023</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>189.7466035210507</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
@@ -37543,7 +37545,7 @@
         <v>38.06115762167967</v>
       </c>
       <c r="K38" t="n">
-        <v>179.0082576726431</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L38" t="n">
         <v>274.8802469209098</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37631,13 +37633,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>331.413953801379</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366292</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -38102,10 +38104,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366292</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N45" t="n">
-        <v>124.8420549921026</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1686594.653146277</v>
+        <v>1630817.131003672</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111175</v>
+        <v>713587.7684111177</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6773926.519887701</v>
+        <v>6773926.519887699</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G2" t="n">
-        <v>64.1386326986768</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,13 +709,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>10.25948646672904</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>210.6543024793039</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>48.83589518354175</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -919,7 +919,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>84.97365353379637</v>
       </c>
       <c r="W6" t="n">
-        <v>162.6407508547923</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>40.47627913313511</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,25 +1183,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1235,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>42.1813534099589</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>86.65804289016209</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>34.61564851813438</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,16 +1457,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>20.18531815199115</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -1502,22 +1502,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.256174432631903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>160.9432843732984</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.98174747814556</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>93.8960577136874</v>
       </c>
       <c r="C15" t="n">
-        <v>3.621171661741974</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>98.68313739545458</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>92.35335504220156</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>233.8975892548367</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>7.425224531301852</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>53.68339768998869</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>73.36175976093791</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>121.2639307986801</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>66.9740171447237</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>120.8703053608542</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.78974769572879</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>220.0784472230035</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>139.7420646587695</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>120.9830058185664</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>85.89602683941162</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
@@ -2453,16 +2453,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12.35168551462431</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>98.68313739545462</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>125.7373763505589</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>81.21596998689211</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>7.425224531301852</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>61.44191621213871</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>42.05930342856824</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>17.95817021688028</v>
       </c>
       <c r="I29" t="n">
-        <v>47.74806282379119</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2876,10 +2876,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>28.28562170591829</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>173.5817459848529</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>39.1947906270704</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>39.19479062707025</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>399.8885402891419</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>117.3450705775779</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.12752273267782</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>198.8438394731585</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.88504894832682</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>217.5440692862961</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>70.82394210419623</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>1.274267523013304</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>127.5262986521572</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>158.2525819861379</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>203.1832617907426</v>
       </c>
       <c r="H38" t="n">
-        <v>220.3408895985027</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>70.12830304199565</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>54.50354703398625</v>
       </c>
     </row>
     <row r="40">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>39.1947906270704</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>70.6261198365675</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>11.60791818471252</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="C42" t="n">
-        <v>128.4562226808342</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>18.12022702288976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>138.2222037912892</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>103.5442844410954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>132.4670034684875</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>166.2992102321575</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6221850809707</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C2" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E2" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F2" t="n">
-        <v>552.188315333803</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370.2385984713777</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C3" t="n">
-        <v>370.2385984713777</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D3" t="n">
-        <v>370.2385984713777</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>370.2385984713777</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>578.0900986769104</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>578.0900986769104</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>578.0900986769104</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>370.2385984713777</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>370.2385984713777</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>254.2858631377404</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>254.2858631377404</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>254.2858631377404</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>247.340362388537</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>362.4348659156472</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="C6" t="n">
-        <v>362.4348659156472</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D6" t="n">
-        <v>362.4348659156472</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>526.7184526376595</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="W6" t="n">
-        <v>362.4348659156472</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="X6" t="n">
-        <v>362.4348659156472</v>
+        <v>878.2251822441752</v>
       </c>
       <c r="Y6" t="n">
-        <v>362.4348659156472</v>
+        <v>878.2251822441752</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>72.23626279480629</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>382.9414955037181</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C9" t="n">
-        <v>382.9414955037181</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>382.9414955037181</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="V9" t="n">
-        <v>425.5489231905453</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="W9" t="n">
-        <v>382.9414955037181</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="X9" t="n">
-        <v>382.9414955037181</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="Y9" t="n">
-        <v>382.9414955037181</v>
+        <v>816.3871559026832</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.45932575975218</v>
+        <v>811.2618144142066</v>
       </c>
       <c r="C11" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F11" t="n">
         <v>32.45932575975218</v>
@@ -5041,16 +5041,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5077,16 +5077,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>1535.43291133088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>1182.664256060766</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X11" t="n">
-        <v>809.1984977996857</v>
+        <v>1588.00098645414</v>
       </c>
       <c r="Y11" t="n">
-        <v>419.059165823874</v>
+        <v>1197.861654478328</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>281.1183222484067</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>132.1839125871554</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H12" t="n">
         <v>111.7947023326189</v>
@@ -5150,22 +5150,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1374.066492846507</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V12" t="n">
-        <v>1374.066492846507</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W12" t="n">
-        <v>1374.066492846507</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X12" t="n">
-        <v>1166.214992640974</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>455.5713515295337</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
         <v>32.45932575975218</v>
@@ -5223,28 +5223,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1145.475793905159</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C14" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D14" t="n">
-        <v>418.2475783579964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E14" t="n">
         <v>32.45932575975218</v>
@@ -5278,16 +5278,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5302,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.966287987609</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.966287987609</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="V14" t="n">
-        <v>1622.966287987609</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W14" t="n">
-        <v>1622.966287987609</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X14" t="n">
-        <v>1622.966287987609</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y14" t="n">
-        <v>1532.07563396928</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.0366893934302</v>
+        <v>455.6182862742456</v>
       </c>
       <c r="C15" t="n">
-        <v>558.3789402401554</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="D15" t="n">
-        <v>409.4445305789042</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="E15" t="n">
-        <v>250.2070755734487</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="F15" t="n">
-        <v>250.2070755734487</v>
+        <v>281.1652569931186</v>
       </c>
       <c r="G15" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K15" t="n">
         <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>236.9655055809357</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>636.3836421851986</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N15" t="n">
-        <v>1038.067798462132</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O15" t="n">
-        <v>1361.08130563669</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U15" t="n">
-        <v>1145.863825383985</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V15" t="n">
-        <v>1145.863825383985</v>
+        <v>1220.311944714032</v>
       </c>
       <c r="W15" t="n">
-        <v>1145.863825383985</v>
+        <v>966.0745879858307</v>
       </c>
       <c r="X15" t="n">
-        <v>938.0123251784521</v>
+        <v>758.2230877802979</v>
       </c>
       <c r="Y15" t="n">
-        <v>730.2520264134982</v>
+        <v>550.462789015344</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="F16" t="n">
         <v>32.45932575975218</v>
@@ -5445,43 +5445,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="W16" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="X16" t="n">
-        <v>253.2519049032823</v>
+        <v>132.1392625228376</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228376</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>369.2677254726013</v>
+        <v>1386.706096821107</v>
       </c>
       <c r="C17" t="n">
-        <v>369.2677254726013</v>
+        <v>1017.743579880696</v>
       </c>
       <c r="D17" t="n">
-        <v>369.2677254726013</v>
+        <v>1017.743579880696</v>
       </c>
       <c r="E17" t="n">
-        <v>369.2677254726013</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="F17" t="n">
-        <v>369.2677254726013</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G17" t="n">
-        <v>369.2677254726013</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5542,25 +5542,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1529.680070773264</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1306.936151154032</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1053.099268086286</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>722.0363807427154</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W17" t="n">
-        <v>369.2677254726013</v>
+        <v>1386.706096821107</v>
       </c>
       <c r="X17" t="n">
-        <v>369.2677254726013</v>
+        <v>1386.706096821107</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.2677254726013</v>
+        <v>1386.706096821107</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.95955255904698</v>
+        <v>556.6069769075573</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975218</v>
+        <v>382.1539476264303</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>233.219537965179</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975218</v>
+        <v>233.219537965179</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>86.684979992064</v>
       </c>
       <c r="G18" t="n">
         <v>32.45932575975218</v>
@@ -5594,52 +5594,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>236.9655055809357</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>1186.91117086136</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>932.6738141331582</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240009</v>
+        <v>724.8223139276254</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.95955255904698</v>
+        <v>724.8223139276254</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="G19" t="n">
         <v>32.45932575975218</v>
@@ -5706,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>72.05002336285361</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1088.658125761969</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="C20" t="n">
-        <v>1088.658125761969</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D20" t="n">
-        <v>730.3924271552187</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E20" t="n">
-        <v>344.6041745569744</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>344.6041745569744</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G20" t="n">
-        <v>344.6041745569744</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
         <v>70.13987180521508</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1088.658125761969</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="V20" t="n">
-        <v>1088.658125761969</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="W20" t="n">
-        <v>1088.658125761969</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="X20" t="n">
-        <v>1088.658125761969</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="Y20" t="n">
-        <v>1088.658125761969</v>
+        <v>1555.315765619201</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>937.2982737420236</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C21" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D21" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E21" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>236.9655055809358</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>636.3836421851988</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N21" t="n">
-        <v>1038.067798462132</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1361.08130563669</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1603.325054840698</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1340.665718993834</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1340.665718993834</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V21" t="n">
-        <v>1105.513610762092</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W21" t="n">
-        <v>1105.513610762092</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X21" t="n">
-        <v>1105.513610762092</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y21" t="n">
-        <v>1105.513610762092</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5943,19 +5943,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.2570507049328</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>591.0778725088204</v>
+        <v>664.6007593152126</v>
       </c>
       <c r="C23" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D23" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E23" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F23" t="n">
-        <v>222.1153555684087</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G23" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
         <v>838.8947028941457</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1508.970645214178</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1508.970645214178</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="W23" t="n">
-        <v>1508.970645214178</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="X23" t="n">
-        <v>1367.817044548754</v>
+        <v>664.6007593152126</v>
       </c>
       <c r="Y23" t="n">
-        <v>977.6777125729423</v>
+        <v>664.6007593152126</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>938.0113757202575</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>763.5583464391306</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>614.6239367778793</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>455.3864817724238</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>308.8519237993088</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>256.6067387278474</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321104</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1173.163483952</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>938.0113757202575</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W24" t="n">
-        <v>938.0113757202575</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0113757202575</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y24" t="n">
-        <v>938.0113757202575</v>
+        <v>329.1174114232695</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>214.3566541050398</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>44.93577577452422</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6177,22 +6177,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.7250243665027</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="C26" t="n">
-        <v>390.7250243665027</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6253,25 +6253,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1495.958837128459</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1495.958837128459</v>
       </c>
       <c r="U26" t="n">
-        <v>1540.929954667516</v>
+        <v>1495.958837128459</v>
       </c>
       <c r="V26" t="n">
-        <v>1540.929954667516</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="W26" t="n">
-        <v>1540.929954667516</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="X26" t="n">
-        <v>1167.464196406436</v>
+        <v>1164.895949784888</v>
       </c>
       <c r="Y26" t="n">
-        <v>777.3248644306245</v>
+        <v>1164.895949784888</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39.95955255904698</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="C27" t="n">
-        <v>32.45932575975218</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="D27" t="n">
-        <v>32.45932575975218</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975218</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975218</v>
+        <v>343.2277986215416</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>204.8154253807119</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>94.52186738817514</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497702</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P27" t="n">
         <v>1622.966287987609</v>
@@ -6329,28 +6329,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U27" t="n">
-        <v>944.9608164894781</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V27" t="n">
-        <v>709.8087082577354</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W27" t="n">
-        <v>455.5713515295337</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X27" t="n">
-        <v>247.7198513240009</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.95955255904698</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6405,31 +6405,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>74.94347063709384</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1622.966287987609</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C29" t="n">
-        <v>1622.966287987609</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="D29" t="n">
-        <v>1622.966287987609</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="E29" t="n">
-        <v>1237.178035389365</v>
+        <v>460.4388633494316</v>
       </c>
       <c r="F29" t="n">
-        <v>827.338063675322</v>
+        <v>50.59889163538884</v>
       </c>
       <c r="G29" t="n">
-        <v>417.4980919612793</v>
+        <v>50.59889163538884</v>
       </c>
       <c r="H29" t="n">
-        <v>80.68969224843016</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6508,7 +6508,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="Y29" t="n">
-        <v>1622.966287987609</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>594.4195962804527</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>419.9665669993257</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D30" t="n">
-        <v>271.0321573380744</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>91.8829712494292</v>
       </c>
       <c r="L30" t="n">
-        <v>505.948365158507</v>
+        <v>389.6147262310924</v>
       </c>
       <c r="M30" t="n">
-        <v>905.36650176277</v>
+        <v>789.0328628353553</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.050658039703</v>
+        <v>1190.717019112289</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1594.394952931126</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1426.892717889292</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1225.989708994785</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U30" t="n">
-        <v>997.7870415322634</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V30" t="n">
-        <v>762.6349333005207</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W30" t="n">
-        <v>762.6349333005207</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X30" t="n">
-        <v>762.6349333005207</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y30" t="n">
-        <v>762.6349333005207</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C31" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>1333.769709747513</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V31" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W31" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X31" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y31" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.45932575975218</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975218</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975218</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>436.3871442336329</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975218</v>
@@ -6706,10 +6706,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>503.7583553506521</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W32" t="n">
-        <v>150.9897000805379</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X32" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.45932575975218</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>355.8467647021305</v>
+        <v>288.8593477001497</v>
       </c>
       <c r="C33" t="n">
-        <v>181.3937354210034</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975218</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975218</v>
+        <v>114.4063184190227</v>
       </c>
       <c r="H33" t="n">
         <v>32.45932575975218</v>
@@ -6782,13 +6782,13 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N33" t="n">
         <v>948.4732699082806</v>
@@ -6809,22 +6809,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.966287987609</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U33" t="n">
-        <v>1394.763620525087</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V33" t="n">
-        <v>1193.911257420887</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W33" t="n">
-        <v>939.6739006926853</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X33" t="n">
-        <v>731.8224004871524</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y33" t="n">
-        <v>524.0621017221986</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.77755702068836</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C34" t="n">
-        <v>75.77755702068836</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D34" t="n">
-        <v>75.77755702068836</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E34" t="n">
-        <v>75.77755702068836</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F34" t="n">
-        <v>75.77755702068836</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="G34" t="n">
-        <v>75.77755702068836</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>75.77755702068836</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>75.77755702068836</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
         <v>32.45932575975218</v>
@@ -6879,31 +6879,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>296.5701361642185</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U34" t="n">
-        <v>296.5701361642185</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V34" t="n">
-        <v>296.5701361642185</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W34" t="n">
-        <v>296.5701361642185</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X34" t="n">
-        <v>296.5701361642185</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.77755702068836</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>441.8568396959805</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C35" t="n">
-        <v>441.8568396959805</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D35" t="n">
-        <v>441.8568396959805</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E35" t="n">
-        <v>441.8568396959805</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F35" t="n">
-        <v>441.8568396959805</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>441.8568396959805</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1437.431309755393</v>
       </c>
       <c r="T35" t="n">
-        <v>1400.222368368377</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="U35" t="n">
-        <v>1146.385485300631</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="V35" t="n">
-        <v>815.3225979570603</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="W35" t="n">
-        <v>815.3225979570603</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="X35" t="n">
-        <v>441.8568396959805</v>
+        <v>1214.687390136161</v>
       </c>
       <c r="Y35" t="n">
-        <v>441.8568396959805</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>910.3247089140674</v>
+        <v>737.1588185450751</v>
       </c>
       <c r="C36" t="n">
         <v>735.8716796329404</v>
@@ -7016,16 +7016,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L36" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N36" t="n">
         <v>948.4732699082806</v>
@@ -7049,19 +7049,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U36" t="n">
-        <v>1622.966287987609</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V36" t="n">
-        <v>1622.966287987609</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W36" t="n">
-        <v>1494.151844904622</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X36" t="n">
-        <v>1286.300344699089</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="Y36" t="n">
-        <v>1078.540045934135</v>
+        <v>905.3741555651432</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1463.115195072318</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>444.6819107184115</v>
+        <v>623.4831963284435</v>
       </c>
       <c r="C38" t="n">
-        <v>444.6819107184115</v>
+        <v>623.4831963284435</v>
       </c>
       <c r="D38" t="n">
-        <v>444.6819107184115</v>
+        <v>623.4831963284435</v>
       </c>
       <c r="E38" t="n">
-        <v>444.6819107184115</v>
+        <v>237.6949437301992</v>
       </c>
       <c r="F38" t="n">
-        <v>444.6819107184115</v>
+        <v>237.6949437301992</v>
       </c>
       <c r="G38" t="n">
-        <v>444.6819107184115</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K38" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U38" t="n">
-        <v>834.8212426942232</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V38" t="n">
-        <v>834.8212426942232</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W38" t="n">
-        <v>834.8212426942232</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X38" t="n">
-        <v>834.8212426942232</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y38" t="n">
-        <v>444.6819107184115</v>
+        <v>1010.083036392565</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>737.1093162839455</v>
+        <v>534.9536628471124</v>
       </c>
       <c r="C39" t="n">
-        <v>737.1093162839455</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="D39" t="n">
-        <v>666.272646544556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F39" t="n">
         <v>360.5006335659854</v>
@@ -7250,25 +7250,25 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>201.1187329501918</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>498.850487931855</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>898.268624536118</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N39" t="n">
-        <v>1299.952780813051</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1622.966287987609</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7277,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894784</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V39" t="n">
-        <v>944.9608164894784</v>
+        <v>1220.311944714032</v>
       </c>
       <c r="W39" t="n">
-        <v>944.9608164894784</v>
+        <v>966.0745879858307</v>
       </c>
       <c r="X39" t="n">
-        <v>737.1093162839455</v>
+        <v>758.2230877802979</v>
       </c>
       <c r="Y39" t="n">
-        <v>737.1093162839455</v>
+        <v>703.1689998671804</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7359,25 +7359,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>401.4218427001639</v>
+        <v>1221.101786128249</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975218</v>
@@ -7411,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7450,13 +7450,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>1178.161014740097</v>
+        <v>1611.241118104061</v>
       </c>
       <c r="Y41" t="n">
-        <v>788.0216827642857</v>
+        <v>1221.101786128249</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>944.9608164894781</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K42" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L42" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7526,16 +7526,16 @@
         <v>944.9608164894781</v>
       </c>
       <c r="V42" t="n">
-        <v>944.9608164894781</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W42" t="n">
-        <v>944.9608164894781</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X42" t="n">
-        <v>944.9608164894781</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y42" t="n">
-        <v>944.9608164894781</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>1461.474148589836</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1312.482271763492</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1041.795298996494</v>
+        <v>172.0777134277211</v>
       </c>
       <c r="C44" t="n">
-        <v>1041.795298996494</v>
+        <v>172.0777134277211</v>
       </c>
       <c r="D44" t="n">
-        <v>1041.795298996494</v>
+        <v>172.0777134277211</v>
       </c>
       <c r="E44" t="n">
-        <v>1041.795298996494</v>
+        <v>172.0777134277211</v>
       </c>
       <c r="F44" t="n">
-        <v>631.9553272824514</v>
+        <v>172.0777134277211</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7675,25 +7675,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T44" t="n">
-        <v>1400.222368368377</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U44" t="n">
-        <v>1146.385485300631</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V44" t="n">
-        <v>1146.385485300631</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="W44" t="n">
-        <v>1041.795298996494</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="X44" t="n">
-        <v>1041.795298996494</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="Y44" t="n">
-        <v>1041.795298996494</v>
+        <v>558.6775534918429</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>651.0967412602795</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="C45" t="n">
-        <v>476.6437119791524</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D45" t="n">
-        <v>476.6437119791524</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E45" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F45" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
         <v>32.45932575975218</v>
@@ -7730,10 +7730,10 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L45" t="n">
-        <v>534.6972605625989</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M45" t="n">
         <v>656.0248753321102</v>
@@ -7751,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1489.161233979036</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1489.161233979036</v>
+        <v>1206.087492612004</v>
       </c>
       <c r="U45" t="n">
-        <v>1489.161233979036</v>
+        <v>1206.087492612004</v>
       </c>
       <c r="V45" t="n">
-        <v>1489.161233979036</v>
+        <v>970.9353843802614</v>
       </c>
       <c r="W45" t="n">
-        <v>1234.923877250834</v>
+        <v>716.6980276520599</v>
       </c>
       <c r="X45" t="n">
-        <v>1027.072377045301</v>
+        <v>508.846527446527</v>
       </c>
       <c r="Y45" t="n">
-        <v>819.3120782803476</v>
+        <v>508.846527446527</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G46" t="n">
-        <v>193.9514651575251</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975218</v>
@@ -7839,19 +7839,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>233.6791982203443</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>63.84875129258624</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9011,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>429.4962025068241</v>
       </c>
       <c r="N15" t="n">
         <v>455.0874215304797</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>227.9632448481682</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
-        <v>70.10119885733474</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M18" t="n">
-        <v>375.205539958231</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.5777639440803</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>296.512727107936</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304798</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
         <v>86.93262649026376</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>351.7205150479949</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275543</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>117.9172225363094</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O30" t="n">
-        <v>142.0020905588914</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>251.9990040344213</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>103.505681799068</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10904,7 +10904,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>257.2956640563644</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831324</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275543</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M42" t="n">
-        <v>74.46639351210651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209744</v>
       </c>
       <c r="M45" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
@@ -23317,13 +23317,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0942155799728</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>335.1154521603347</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>137.4597623034098</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>197.4265213446725</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23433,7 +23433,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>120.6824273767248</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
         <v>147.5019580580808</v>
@@ -23463,16 +23463,16 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>59.32005692394495</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>59.57319604974137</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.256191177908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>72.63712593617994</v>
       </c>
       <c r="C15" t="n">
-        <v>169.0873273265738</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,13 +23630,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>46.73791062747667</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23706,7 +23706,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.3046124576955</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>118.794905656366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>103.239558792445</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>115.3433794625763</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,22 +23810,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>165.2832744570139</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>83.34485181843276</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7266695472104</v>
+        <v>94.36490978627249</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23946,13 +23946,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>247.3282077095206</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>212.1763849170405</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>184.3244970923447</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>51.83819362746152</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>67.93692185148161</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
         <v>159.8772180037952</v>
@@ -24183,16 +24183,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>145.1944445480041</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
@@ -24262,19 +24262,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>229.9890360196996</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>45.55017783130099</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>51.13222266900983</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,16 +24341,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>147.5255324891709</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
@@ -24417,7 +24417,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
         <v>286.3046124576955</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>127.0265179935825</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24493,25 +24493,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>69.85553748408768</v>
       </c>
       <c r="T26" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>170.0825442501763</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>165.2832744570139</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24533,16 +24533,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>17.10010659499932</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>184.7569622607431</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.134473744809156</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G29" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.4821454988403</v>
       </c>
       <c r="I29" t="n">
-        <v>140.0114066867787</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24764,10 +24764,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,7 +24779,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>52.29796279235723</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>52.33889480304364</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>128.53187892014</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>212.9428526967578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>14.82496384139199</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>252.3860301008911</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25013,7 +25013,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>28.06309967993354</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -25049,13 +25049,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>33.95674767626673</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>69.04353215175577</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25098,7 +25098,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J34" t="n">
-        <v>31.78742751308794</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R34" t="n">
         <v>165.4090611368575</v>
@@ -25128,7 +25128,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.3046124576955</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G35" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>115.8962464294245</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>124.7689717304503</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.4342314653024</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>124.1686845087624</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.57939819579943</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,10 +25362,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>211.5302423397914</v>
       </c>
       <c r="H38" t="n">
-        <v>113.0994261172179</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>77.3167625226431</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>151.1791487433181</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>106.2262573958608</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.7266695472104</v>
@@ -25599,13 +25599,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763988</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>278.6148488808455</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>358.1231824937565</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>159.1079591185655</v>
       </c>
       <c r="C42" t="n">
-        <v>44.25227630748157</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25803,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>56.552249438525</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>59.320056923945</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.97193213363164</v>
+        <v>276.4913003392447</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>245.6966842763176</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>33.36020922292821</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>32.59476857340414</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>2.104484466239711</v>
+        <v>128.53187892014</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26079,7 +26079,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>482797.0368923618</v>
+        <v>482797.0368923622</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>482797.0368923619</v>
+        <v>482797.0368923618</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>482797.0368923619</v>
+        <v>482797.0368923622</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>482797.0368923622</v>
+        <v>482797.0368923618</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>482797.0368923621</v>
+        <v>482797.0368923619</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>482797.0368923622</v>
+        <v>482797.0368923621</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>482797.0368923619</v>
+        <v>482797.0368923621</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>482797.0368923622</v>
+        <v>482797.0368923621</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>482797.0368923622</v>
+        <v>482797.0368923619</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
+        <v>299080.4558904494</v>
+      </c>
+      <c r="F2" t="n">
+        <v>299080.4558904492</v>
+      </c>
+      <c r="G2" t="n">
+        <v>299080.4558904492</v>
+      </c>
+      <c r="H2" t="n">
         <v>299080.4558904495</v>
       </c>
-      <c r="F2" t="n">
-        <v>299080.4558904494</v>
-      </c>
-      <c r="G2" t="n">
-        <v>299080.4558904493</v>
-      </c>
-      <c r="H2" t="n">
-        <v>299080.4558904491</v>
-      </c>
       <c r="I2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904492</v>
       </c>
       <c r="J2" t="n">
-        <v>299080.4558904495</v>
+        <v>299080.4558904492</v>
       </c>
       <c r="K2" t="n">
-        <v>299080.4558904493</v>
+        <v>299080.4558904496</v>
       </c>
       <c r="L2" t="n">
         <v>299080.4558904495</v>
       </c>
       <c r="M2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="N2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904495</v>
       </c>
       <c r="O2" t="n">
-        <v>299080.4558904492</v>
+        <v>299080.4558904493</v>
       </c>
       <c r="P2" t="n">
         <v>299080.4558904491</v>
@@ -26377,7 +26377,7 @@
         <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
-        <v>4.261091817170383e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187171</v>
+        <v>312595.3744187172</v>
       </c>
       <c r="E4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="F4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="G4" t="n">
         <v>34482.31175973668</v>
@@ -26438,19 +26438,19 @@
         <v>34482.31175973668</v>
       </c>
       <c r="I4" t="n">
-        <v>34482.31175973668</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="J4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="K4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="L4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
-        <v>34482.31175973668</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="N4" t="n">
         <v>34482.31175973668</v>
@@ -26459,7 +26459,7 @@
         <v>34482.31175973668</v>
       </c>
       <c r="P4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
     </row>
     <row r="5">
@@ -26487,16 +26487,16 @@
         <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="J5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="J5" t="n">
-        <v>27864.35291375756</v>
-      </c>
-      <c r="K5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375756</v>
@@ -26505,7 +26505,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133083.1641909719</v>
+        <v>133083.1641909718</v>
       </c>
       <c r="C6" t="n">
+        <v>213852.5957225195</v>
+      </c>
+      <c r="D6" t="n">
         <v>213852.5957225194</v>
       </c>
-      <c r="D6" t="n">
-        <v>213852.5957225195</v>
-      </c>
       <c r="E6" t="n">
-        <v>69793.62109170853</v>
+        <v>59949.02169833165</v>
       </c>
       <c r="F6" t="n">
-        <v>236733.7912169551</v>
+        <v>226889.1918235782</v>
       </c>
       <c r="G6" t="n">
-        <v>236733.7912169551</v>
+        <v>226889.1918235782</v>
       </c>
       <c r="H6" t="n">
-        <v>236733.7912169549</v>
+        <v>226889.1918235785</v>
       </c>
       <c r="I6" t="n">
-        <v>236733.7912169551</v>
+        <v>226889.1918235782</v>
       </c>
       <c r="J6" t="n">
-        <v>173673.8486178491</v>
+        <v>163829.249224472</v>
       </c>
       <c r="K6" t="n">
-        <v>236733.7912169551</v>
+        <v>226889.1918235786</v>
       </c>
       <c r="L6" t="n">
-        <v>236733.7912169552</v>
+        <v>226889.1918235785</v>
       </c>
       <c r="M6" t="n">
-        <v>195683.0933545071</v>
+        <v>185838.4939611304</v>
       </c>
       <c r="N6" t="n">
-        <v>236733.7912169549</v>
+        <v>226889.1918235785</v>
       </c>
       <c r="O6" t="n">
-        <v>236733.791216955</v>
+        <v>226889.1918235783</v>
       </c>
       <c r="P6" t="n">
-        <v>236733.7912169548</v>
+        <v>226889.1918235781</v>
       </c>
     </row>
   </sheetData>
@@ -26971,7 +26971,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>5.39075054832453e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>164.7272831192433</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>164.7272831192432</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.014288877659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>331.7898455187701</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>351.1641048164582</v>
-      </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27463,16 +27463,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>215.6818956142458</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>137.4656039084742</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>154.6185892917037</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>333.09447488872</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,16 +27748,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>147.8269336156289</v>
       </c>
       <c r="W6" t="n">
-        <v>89.05423230612735</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>101.5905486845387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>374.8264583819999</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>152.5970991193535</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27937,16 +27937,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>125.6477056446075</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>209.5136297509607</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>133.416483154574</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32013,25 +32013,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
@@ -32080,22 +32080,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q15" t="n">
         <v>40.24363958326609</v>
@@ -32104,7 +32104,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32183,7 +32183,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32645,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32654,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L23" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N23" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K24" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R24" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J25" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
         <v>39.29566048323129</v>
@@ -32882,7 +32882,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
         <v>31.96707026225442</v>
@@ -32891,16 +32891,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>91.0829537758999</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
         <v>14.50290175900885</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35658,7 +35658,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>367.2438019934535</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
@@ -35743,10 +35743,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>154.191131969855</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M18" t="n">
-        <v>312.9531394448603</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -35983,7 +35983,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36220,7 +36220,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.8396294413249</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K23" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L23" t="n">
         <v>274.8802469209098</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
-        <v>226.4115282506013</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36457,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M25" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>302.3746655144175</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>30.98459604604563</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36925,13 +36925,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
-        <v>74.41604115545286</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>189.7466035210507</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
         <v>177.5326105223148</v>
@@ -37393,10 +37393,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>41.25328128569732</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>170.3630375661007</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37639,7 +37639,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726431</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M42" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
         <v>405.7415719969023</v>
@@ -37879,7 +37879,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38098,13 +38098,13 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636397</v>
       </c>
       <c r="M45" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
